--- a/GDM_ranking_miast.xlsx
+++ b/GDM_ranking_miast.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E386D7D6-0C07-4359-A6D1-B67E0024F332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19A0746-7F6E-4008-8755-73C3FE6465F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,7 +582,7 @@
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +606,7 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>0.15</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -617,7 +617,7 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>0.27</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -628,7 +628,7 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>0.28999999999999998</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>0.29599999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>0.33</v>
+        <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -661,7 +661,7 @@
         <v>55</v>
       </c>
       <c r="C7">
-        <v>0.34</v>
+        <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -669,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>0.35</v>
+        <v>0.34799999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -680,10 +680,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>0.35</v>
+        <v>0.34899999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>0.36</v>
+        <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -705,7 +705,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>0.36</v>
+        <v>0.35899999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -716,7 +716,7 @@
         <v>58</v>
       </c>
       <c r="C12">
-        <v>0.37</v>
+        <v>0.36699999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -724,10 +724,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C13">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -738,7 +738,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.38</v>
+        <v>0.38200000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -746,10 +746,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C15">
-        <v>0.38</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -757,10 +757,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>0.38</v>
+        <v>0.38400000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -771,7 +771,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0.39</v>
+        <v>0.38900000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -779,10 +779,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C18">
-        <v>0.4</v>
+        <v>0.40300000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -790,10 +790,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C19">
-        <v>0.4</v>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -801,10 +801,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C20">
-        <v>0.41</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -812,10 +812,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>0.41</v>
+        <v>0.40899999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -823,10 +823,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>0.41</v>
+        <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -834,10 +834,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C23">
-        <v>0.42</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -845,10 +845,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C24">
-        <v>0.42</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -856,10 +856,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C25">
-        <v>0.43</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -867,7 +867,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>0.43</v>
@@ -900,10 +900,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>0.43</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -911,10 +911,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C30">
-        <v>0.44</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -925,7 +925,7 @@
         <v>20</v>
       </c>
       <c r="C31">
-        <v>0.44</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -936,7 +936,7 @@
         <v>27</v>
       </c>
       <c r="C32">
-        <v>0.44</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -955,10 +955,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>0.44</v>
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -969,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>0.45</v>
+        <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -977,10 +977,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C36">
-        <v>0.45</v>
+        <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -988,10 +988,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C37">
-        <v>0.45</v>
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -999,10 +999,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C38">
-        <v>0.46</v>
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1010,10 +1010,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C39">
-        <v>0.46</v>
+        <v>0.45800000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1021,10 +1021,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C40">
-        <v>0.46</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1032,10 +1032,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C41">
-        <v>0.46</v>
+        <v>0.46200000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1043,10 +1043,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C42">
-        <v>0.47</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1054,10 +1054,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>0.47</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1068,7 +1068,7 @@
         <v>29</v>
       </c>
       <c r="C44">
-        <v>0.48</v>
+        <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1079,7 +1079,7 @@
         <v>25</v>
       </c>
       <c r="C45">
-        <v>0.49</v>
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1087,10 +1087,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C46">
-        <v>0.49</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1098,10 +1098,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C47">
-        <v>0.49</v>
+        <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1109,10 +1109,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C48">
-        <v>0.5</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1123,7 +1123,7 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1131,10 +1131,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C50">
-        <v>0.5</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1142,7 +1142,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C51">
         <v>0.51</v>
@@ -1153,10 +1153,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C52">
-        <v>0.51</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1164,10 +1164,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C53">
-        <v>0.51</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1175,10 +1175,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C54">
-        <v>0.51</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1186,10 +1186,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55">
-        <v>0.51</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1200,7 +1200,7 @@
         <v>38</v>
       </c>
       <c r="C56">
-        <v>0.52</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1211,7 +1211,7 @@
         <v>42</v>
       </c>
       <c r="C57">
-        <v>0.52</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1222,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>0.53</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1233,7 +1233,7 @@
         <v>30</v>
       </c>
       <c r="C59">
-        <v>0.53</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1244,7 +1244,7 @@
         <v>46</v>
       </c>
       <c r="C60">
-        <v>0.53</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1255,7 +1255,7 @@
         <v>47</v>
       </c>
       <c r="C61">
-        <v>0.54</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1266,7 +1266,7 @@
         <v>41</v>
       </c>
       <c r="C62">
-        <v>0.55000000000000004</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1277,7 +1277,7 @@
         <v>9</v>
       </c>
       <c r="C63">
-        <v>0.56000000000000005</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1288,7 +1288,7 @@
         <v>61</v>
       </c>
       <c r="C64">
-        <v>0.56999999999999995</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1299,7 +1299,7 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>0.6</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1310,7 +1310,7 @@
         <v>45</v>
       </c>
       <c r="C66">
-        <v>0.61</v>
+        <v>0.60699999999999998</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1321,11 +1321,11 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0.61</v>
+        <v>0.61099999999999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C67">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C67">
     <sortCondition ref="C2:C67"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
